--- a/Planning Document.xlsx
+++ b/Planning Document.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Planning Document.xlsx
+++ b/Planning Document.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Ideas</t>
   </si>
@@ -84,9 +85,6 @@
     <t>Incidents Most Recent.kml</t>
   </si>
   <si>
-    <t>Observations YYYY-MM-DD HH.mm.ss.csv</t>
-  </si>
-  <si>
     <t>Observations YYYY-MM-DD HH.mm.ss.kml</t>
   </si>
   <si>
@@ -151,6 +149,114 @@
   </si>
   <si>
     <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Observations loc_code YYYY-MM-DD HH.mm.ss.csv</t>
+  </si>
+  <si>
+    <t>Obs Pseudo Code</t>
+  </si>
+  <si>
+    <t>Get Obs for each station</t>
+  </si>
+  <si>
+    <t>Read most recent entry in obs db file</t>
+  </si>
+  <si>
+    <t>If new ob is newer than most recent entry, append new entry</t>
+  </si>
+  <si>
+    <t>get obs from net</t>
+  </si>
+  <si>
+    <t>create history graphs from data</t>
+  </si>
+  <si>
+    <t>create victorian overlays</t>
+  </si>
+  <si>
+    <t>Data From</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Return Data</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Open CSV files</t>
+  </si>
+  <si>
+    <t>Create graphs according to all obs in file</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>loc_code-XXXX.png</t>
+  </si>
+  <si>
+    <t>History of Location for the day, where XXXX is dew point, pressure, etc.</t>
+  </si>
+  <si>
+    <t>Save Graphs</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Modules / Functions</t>
+  </si>
+  <si>
+    <t>Load Historical Data Points from CSV</t>
+  </si>
+  <si>
+    <t>Update Obs from Net</t>
+  </si>
+  <si>
+    <t>According to current module, use data points in module</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Create HTML balloon with data and graphs (data shows recent and history)</t>
+  </si>
+  <si>
+    <t>Read locations data from csv</t>
+  </si>
+  <si>
+    <t>create kml</t>
+  </si>
+  <si>
+    <t>Create KML for individual Locations</t>
+  </si>
+  <si>
+    <t>Read overlays</t>
+  </si>
+  <si>
+    <t>Organise Overlays</t>
+  </si>
+  <si>
+    <t>Create KML for overlays</t>
+  </si>
+  <si>
+    <t>Module 5</t>
+  </si>
+  <si>
+    <t>Put into an array</t>
+  </si>
+  <si>
+    <t>Module 6</t>
+  </si>
+  <si>
+    <t>Call Module 1</t>
   </si>
 </sst>
 </file>
@@ -520,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -577,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -586,76 +692,76 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
         <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
         <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.4">
@@ -663,46 +769,238 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Planning Document.xlsx
+++ b/Planning Document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10971" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Ideas</t>
   </si>
@@ -151,9 +151,6 @@
     <t>YYYY-MM-DD</t>
   </si>
   <si>
-    <t>Observations loc_code YYYY-MM-DD HH.mm.ss.csv</t>
-  </si>
-  <si>
     <t>Obs Pseudo Code</t>
   </si>
   <si>
@@ -257,6 +254,48 @@
   </si>
   <si>
     <t>Call Module 1</t>
+  </si>
+  <si>
+    <t>loc_code.csv</t>
+  </si>
+  <si>
+    <t>CSV Obs Files</t>
+  </si>
+  <si>
+    <t>time (stamp)</t>
+  </si>
+  <si>
+    <t>epoch / integer</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>dew</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>lcl</t>
+  </si>
+  <si>
+    <t>rel_hum</t>
+  </si>
+  <si>
+    <t>wind velocity</t>
+  </si>
+  <si>
+    <t>wind direction</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>Module 1 / 2</t>
   </si>
 </sst>
 </file>
@@ -628,13 +667,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="18.15234375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
@@ -769,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
         <v>32</v>
@@ -801,13 +840,13 @@
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.4">
       <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>59</v>
-      </c>
-      <c r="K21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.4">
@@ -829,81 +868,81 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>46</v>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>47</v>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>54</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -911,96 +950,134 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>57</v>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>61</v>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>